--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru\Desktop\졸작\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
     <sheet name="인간 스킬" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="128">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데미지에 6D 추가(2턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>응목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사거리 내의 적 1턴간 50% 스텟감소(3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>성령</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,10 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아군의 기동력과 시야 + 1(3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,18 +390,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1의 고정피해를 입히고 1턴간 행동불가 상태로 만듬(3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아군 전체에게 2턴간 피해 50%반사 버프(4턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본공격에 회피, 피해감면 불가 속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,10 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1턴간 피해 무효화(3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세르제테스(보스)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,11 +466,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4칸 내의 적 2명(랜덤)에게 1의 고정피해(3턴)</t>
+    <t>기본공격 +6D의 데미지(2턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐이씨;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 고정 피해 무효</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리 내의 적 1턴간 50% 공,기,회 감소(3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4칸 내의 적 2명(랜덤)에게 1의 고정피해 1명이면 2hit(3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군의 기동력과 사거리+1 1턴간 전범위(4턴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1D4수치 만큼 기본공격(4턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4칸 내의 적 한명에게 1의 고정피해를 입히고 1턴간 행동불가 상태로 만듬(3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체에게 2턴간 기본 공격 피해 50%반사 버프(4턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1턴간 모든 피해 무효화(3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동은</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -906,7 +937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1083,7 +1114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1093,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1290,22 +1321,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1316,295 +1349,373 @@
         <v>5</v>
       </c>
       <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="D3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="C8" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>81</v>
-      </c>
       <c r="C10" s="19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="E19" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D20" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" s="16"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="16"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" s="16"/>
     </row>
-    <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D32" s="14"/>
     </row>
     <row r="33" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,6 +532,14 @@
   </si>
   <si>
     <t>1턴간 모든 피해 무효화(3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1114,7 +1127,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1122,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1136,7 +1149,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1157,8 +1170,11 @@
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1168,8 +1184,11 @@
       <c r="C3" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1179,8 +1198,11 @@
       <c r="C4" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1190,8 +1212,11 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1201,8 +1226,11 @@
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1240,11 @@
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1223,8 +1254,11 @@
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1234,8 +1268,11 @@
       <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1245,8 +1282,11 @@
       <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1256,8 +1296,11 @@
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1267,8 +1310,11 @@
       <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
@@ -1278,8 +1324,11 @@
       <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1289,8 +1338,11 @@
       <c r="C14" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
@@ -1300,8 +1352,11 @@
       <c r="C15" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
@@ -1310,6 +1365,9 @@
       </c>
       <c r="C16" s="11" t="s">
         <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1323,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1650,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>91</v>
       </c>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
   </bookViews>
@@ -15,6 +10,10 @@
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
     <sheet name="인간 스킬" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'마족 스킬'!$A$1:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'인간 스킬'!$A$1:$G$20</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1127,7 +1126,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1135,10 +1134,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
@@ -1371,6 +1371,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D16">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="동은"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1379,10 +1386,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1454,7 +1462,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>61</v>
       </c>
@@ -1582,7 +1590,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>82</v>
       </c>
@@ -1735,7 +1743,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>104</v>
       </c>
@@ -1798,6 +1806,13 @@
       <c r="D39" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G20">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="동은"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
     <sheet name="인간 스킬" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'마족 스킬'!$A$1:$D$16</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="131">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뭐이씨;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 고정 피해 무효</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,6 +538,16 @@
   </si>
   <si>
     <t>동은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 이동을 선택하였을때
+스킬못쓰게 막아줘야하는지…?
+몇턴인지...?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적이 길을 막혔을때</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,6 +858,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,7 +1134,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1135,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1146,10 +1153,12 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1159,8 +1168,11 @@
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1171,10 +1183,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1185,10 +1197,10 @@
         <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1199,10 +1211,10 @@
         <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1213,10 +1225,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1227,10 +1239,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -1241,10 +1253,10 @@
         <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1255,10 +1267,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1269,10 +1281,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1283,10 +1295,10 @@
         <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1297,10 +1309,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1311,10 +1323,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
@@ -1325,10 +1337,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1339,10 +1354,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
@@ -1353,10 +1368,10 @@
         <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
@@ -1367,10 +1382,11 @@
         <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D16"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1381,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1391,7 +1407,8 @@
     <col min="2" max="2" width="46.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -1428,10 +1445,10 @@
         <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1448,10 +1465,10 @@
         <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1468,13 +1485,13 @@
         <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1491,10 +1508,10 @@
         <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1511,7 +1528,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1528,7 +1545,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1545,7 +1562,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1556,13 +1573,13 @@
         <v>78</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1579,7 +1596,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1590,13 +1607,13 @@
         <v>80</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1613,7 +1630,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1624,13 +1641,13 @@
         <v>86</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1641,13 +1658,13 @@
         <v>89</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1658,13 +1675,13 @@
         <v>90</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1675,13 +1692,13 @@
         <v>93</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
@@ -1692,13 +1709,13 @@
         <v>95</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
@@ -1715,7 +1732,7 @@
         <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
@@ -1732,7 +1749,7 @@
         <v>99</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1749,7 +1766,7 @@
         <v>107</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
     <sheet name="인간 스킬" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'마족 스킬'!$A$1:$D$16</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +483,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>뭐이씨;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>모든 고정 피해 무효</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,16 +544,6 @@
   </si>
   <si>
     <t>동은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처음 이동을 선택하였을때
-스킬못쓰게 막아줘야하는지…?
-몇턴인지...?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적이 길을 막혔을때</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,9 +854,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,7 +1127,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1142,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1153,12 +1146,10 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1168,11 +1159,8 @@
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1183,10 +1171,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1197,10 +1185,10 @@
         <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1211,10 +1199,10 @@
         <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1225,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1239,10 +1227,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -1253,10 +1241,10 @@
         <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1267,10 +1255,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1281,10 +1269,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1295,10 +1283,10 @@
         <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1309,10 +1297,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1323,10 +1311,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
@@ -1337,13 +1325,10 @@
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1354,10 +1339,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
@@ -1368,10 +1353,10 @@
         <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
@@ -1382,11 +1367,10 @@
         <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D16"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1397,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1407,8 +1391,7 @@
     <col min="2" max="2" width="46.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -1445,10 +1428,10 @@
         <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1465,10 +1448,10 @@
         <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1485,13 +1468,13 @@
         <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1508,10 +1491,10 @@
         <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1528,7 +1511,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1545,7 +1528,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1562,7 +1545,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1573,13 +1556,13 @@
         <v>78</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1596,7 +1579,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1607,13 +1590,13 @@
         <v>80</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1630,7 +1613,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1641,13 +1624,13 @@
         <v>86</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1658,13 +1641,13 @@
         <v>89</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1675,13 +1658,13 @@
         <v>90</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1692,13 +1675,13 @@
         <v>93</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
@@ -1709,13 +1692,13 @@
         <v>95</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
@@ -1732,7 +1715,7 @@
         <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
@@ -1749,7 +1732,7 @@
         <v>99</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1766,7 +1749,7 @@
         <v>107</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="131">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,10 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뭐이씨;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 고정 피해 무효</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,6 +535,17 @@
   </si>
   <si>
     <t>동은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 이동을 선택하였을때
+스킬못쓰게 막아줘야하는지…?
+몇턴인지...?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적이 길을 막았을때
+구석에서는..?(번지?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,6 +856,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,7 +1132,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1135,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1146,10 +1151,12 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="22.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1171,10 +1178,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1185,10 +1192,10 @@
         <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1199,10 +1206,10 @@
         <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1213,10 +1220,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1227,10 +1234,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -1241,10 +1248,10 @@
         <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1255,10 +1262,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1269,10 +1276,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1283,10 +1290,10 @@
         <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1297,10 +1304,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1311,10 +1318,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
@@ -1325,10 +1332,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1339,10 +1349,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
@@ -1353,10 +1363,10 @@
         <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
@@ -1367,7 +1377,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1381,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1391,7 +1401,8 @@
     <col min="2" max="2" width="46.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -1428,10 +1439,10 @@
         <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1448,13 +1459,13 @@
         <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>61</v>
       </c>
@@ -1468,13 +1479,13 @@
         <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1491,10 +1502,10 @@
         <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1511,7 +1522,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1528,7 +1539,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1545,7 +1556,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1556,13 +1567,13 @@
         <v>78</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1579,7 +1590,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1590,13 +1601,13 @@
         <v>80</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1613,7 +1624,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1624,13 +1635,13 @@
         <v>86</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1641,13 +1652,13 @@
         <v>89</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1658,13 +1669,13 @@
         <v>90</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1675,13 +1686,13 @@
         <v>93</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
@@ -1692,13 +1703,13 @@
         <v>95</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
@@ -1715,7 +1726,7 @@
         <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
@@ -1732,7 +1743,7 @@
         <v>99</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1749,7 +1760,7 @@
         <v>107</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -20,17 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="136">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>패시브효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -546,6 +547,30 @@
   <si>
     <t>적이 길을 막았을때
 구석에서는..?(번지?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권위(Authority)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill-now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,6 +884,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,7 +1160,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1140,23 +1168,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="22.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="44.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="22.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1164,220 +1193,235 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>119</v>
+      <c r="E16" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1391,13 +1435,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
@@ -1415,352 +1459,352 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>58</v>
-      </c>
       <c r="C3" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="C8" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="D12" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="C13" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="C16" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="C17" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="D18" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>107</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="138">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +571,14 @@
   </si>
   <si>
     <t>버프완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss -1 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1171,7 +1179,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1201,6 +1209,9 @@
       <c r="E1" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="G1" s="1" t="s">
         <v>134</v>
       </c>
@@ -1220,6 +1231,9 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>135</v>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
     <sheet name="인간 스킬" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'마족 스킬'!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'인간 스킬'!$A$1:$G$20</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="140">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동을 포기하고 기본공격 데미지에 +기동력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원거리 공격 피격시 피해감소 3 근거리 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>응목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,10 +455,6 @@
   </si>
   <si>
     <t>3칸 내의 아군 체력회복 +1(1턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본공격 +6D의 데미지(2턴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -570,15 +557,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>버프완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>miss -1 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동을 포기하고 기본공격 데미지에 +기동력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강건(Strong health)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본공격 +6D의 데미지(2턴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1168,7 +1175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1176,17 +1183,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="22.875" style="1" customWidth="1"/>
@@ -1204,21 +1212,21 @@
         <v>4</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1227,19 +1235,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1247,13 +1255,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1261,10 +1269,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1277,8 +1285,11 @@
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1291,22 +1302,25 @@
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1314,16 +1328,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1334,10 +1348,10 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1345,13 +1359,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
@@ -1362,7 +1376,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1375,8 +1389,11 @@
       <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -1387,16 +1404,19 @@
         <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>137</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
@@ -1404,41 +1424,48 @@
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G16">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="동은"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1447,10 +1474,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1477,348 +1505,348 @@
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="C4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>62</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="C10" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>88</v>
-      </c>
       <c r="C14" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>96</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="C20" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="D20" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>106</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1867,6 +1895,13 @@
       <c r="D39" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G20">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="동은"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -322,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본공격에 회피, 피해감면 불가속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,6 +582,10 @@
   </si>
   <si>
     <t>기본공격 +6D의 데미지(2턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성령(Holy Spirit)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1175,7 +1175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1183,11 +1183,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1212,21 +1212,21 @@
         <v>4</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1235,19 +1235,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1258,10 +1258,10 @@
         <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1286,10 +1286,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1303,13 +1303,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1334,10 +1334,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1348,10 +1348,10 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1362,10 +1362,10 @@
         <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1390,10 +1390,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -1404,19 +1404,19 @@
         <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
@@ -1427,10 +1427,10 @@
         <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
@@ -1441,10 +1441,10 @@
         <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
@@ -1455,17 +1455,11 @@
         <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="동은"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G16"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1477,13 +1471,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
@@ -1505,30 +1500,30 @@
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1545,10 +1540,10 @@
         <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33" hidden="1" x14ac:dyDescent="0.3">
@@ -1565,13 +1560,13 @@
         <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1588,10 +1583,10 @@
         <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1602,13 +1597,13 @@
         <v>67</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1619,13 +1614,13 @@
         <v>70</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1636,13 +1631,13 @@
         <v>72</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1650,203 +1645,203 @@
         <v>73</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="C13" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="C16" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="C17" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="D18" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>104</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1904,5 +1899,6 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="143">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,6 +586,18 @@
   </si>
   <si>
     <t>성령(Holy Spirit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 만 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 만 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1186,7 +1198,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1469,11 +1481,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1488,7 +1500,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1505,8 +1517,11 @@
       <c r="F1" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>137</v>
       </c>
@@ -1525,8 +1540,11 @@
       <c r="G2" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
@@ -1546,7 +1564,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>58</v>
       </c>
@@ -1569,7 +1587,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>61</v>
       </c>
@@ -1589,7 +1607,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>68</v>
       </c>
@@ -1606,7 +1624,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>69</v>
       </c>
@@ -1623,7 +1641,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>71</v>
       </c>
@@ -1640,7 +1658,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>73</v>
       </c>
@@ -1657,7 +1675,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>139</v>
       </c>
@@ -1673,8 +1691,11 @@
       <c r="E10" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
@@ -1691,7 +1712,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>79</v>
       </c>
@@ -1708,7 +1729,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>81</v>
       </c>
@@ -1725,7 +1746,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>83</v>
       </c>
@@ -1742,7 +1763,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>87</v>
       </c>
@@ -1759,7 +1780,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>88</v>
       </c>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="140">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,18 +586,6 @@
   </si>
   <si>
     <t>성령(Holy Spirit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액티브 만 완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액티브 만 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1198,7 +1186,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1481,11 +1469,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1500,7 +1488,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1517,11 +1505,8 @@
       <c r="F1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>137</v>
       </c>
@@ -1540,11 +1525,8 @@
       <c r="G2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
@@ -1564,7 +1546,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>58</v>
       </c>
@@ -1587,7 +1569,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>61</v>
       </c>
@@ -1607,7 +1589,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>68</v>
       </c>
@@ -1624,7 +1606,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>69</v>
       </c>
@@ -1641,7 +1623,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>71</v>
       </c>
@@ -1658,7 +1640,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>73</v>
       </c>
@@ -1675,7 +1657,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>139</v>
       </c>
@@ -1691,11 +1673,8 @@
       <c r="E10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
@@ -1712,7 +1691,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>79</v>
       </c>
@@ -1729,7 +1708,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>81</v>
       </c>
@@ -1746,7 +1725,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>83</v>
       </c>
@@ -1763,7 +1742,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>87</v>
       </c>
@@ -1780,7 +1759,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>88</v>
       </c>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710" activeTab="1"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="144">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,30 +51,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>암휘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근접한 적에게 턴마다 1의 데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직선상의 모든 적에게 10의 데미지(7턴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,30 +67,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>호위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철벽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Water, Snow지형에서 피해감소 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>흑풍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매 턴 첫 피격 회피+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>독아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격 된 데미지의 20%로 반격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,14 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 지형의 이동관련 효과 무효화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,14 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>격노</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼란</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격시마다 데미지 1증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,14 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매혹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>응목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회피+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>돌진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기동력+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>산인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mountain 지형효과 무효</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,30 +235,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격된 적 근접한 적에게 20% 피해(스플)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예웅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격된 적에게 3턴간 출혈 효과(매턴 체력 -1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본공격에 회피, 피해감면 불가속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,30 +259,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산왕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3칸 내의 적 1명 2턴간 이동불가(2턴) Mountain 지형에서만 사용가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지휘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선봉에 위치할 시 피해감소 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mountain 지형에서 기동력 유지, 공격력+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,30 +279,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빙권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본공격에 회피, 피해감면 불가 속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 피해 감소 +1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세르제테스(보스)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,15 +307,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>극마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전 적군에게 1의 고정피해(3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -533,71 +414,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Skill-now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss -1 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동을 포기하고 기본공격 데미지에 +기동력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본공격 +6D의 데미지(2턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 만 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 만 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼란(Confuse)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결박(Bind)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매혹(allurement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>권위(Authority)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill-now</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할 사람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miss -1 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동을 포기하고 기본공격 데미지에 +기동력</t>
+    <t>암휘(Dark Kindle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암화(Dark Fire)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유수(Flowing Water)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적시(Red Arrow)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호위(Guard)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철벽(Iron wall)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑풍(Black Wind)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독아(Poison Tooth)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비행(Flight)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신속( Promptitude)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격노(Rage)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응목(Hawk Eyes)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진(Rush)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산인(Mountiaineer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연사(Continuous Fire)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭신(Explosion Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예조(Sharp Claws)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영환(Soul Balls)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성령(Holy Ghost)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력(Magic Power)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산왕(Mountiain King)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘(Command)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적(Pirate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙권(Ice Fist)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영신(Soul Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신체(God's Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성검(Divine Sword)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극마(End Magic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검황(Sword Emperor)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강건(Strong health)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본공격 +6D의 데미지(2턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성령(Holy Spirit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액티브 만 완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액티브 만 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +614,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +678,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -839,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,9 +883,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,6 +926,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,7 +1209,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1199,12 +1221,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
@@ -1223,22 +1245,22 @@
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>127</v>
+      <c r="D1" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1247,227 +1269,227 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>124</v>
+        <v>90</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>41</v>
+      <c r="A16" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1502,7 +1524,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1510,405 +1532,405 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="B18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="C19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="C20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="D20" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="E20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D25" s="14"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D26" s="14"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D27" s="14"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="16"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="16"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D31" s="14"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D32" s="14"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D33" s="14"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="16"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="16"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="16"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D37" s="14"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D38" s="14"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D39" s="14"/>
+      <c r="D39" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G20">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="144">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +46,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>암휘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>근접한 적에게 턴마다 1의 데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>유수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>직선상의 모든 적에게 10의 데미지(7턴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>적시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,14 +78,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>호위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Water, Snow지형에서 피해감소 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>흑풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>매 턴 첫 피격 회피+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>독아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>피격 된 데미지의 20%로 반격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +114,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>비행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>모든 지형의 이동관련 효과 무효화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +134,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>혼란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>피격시마다 데미지 1증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +146,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>결박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매혹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,6 +238,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>응목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>회피+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +254,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>돌진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>기동력+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +266,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>산인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Mountain 지형효과 무효</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,14 +294,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>연사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>피격된 적 근접한 적에게 20% 피해(스플)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>예웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>피격된 적에게 3턴간 출혈 효과(매턴 체력 -1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>영환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>기본공격에 회피, 피해감면 불가속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,14 +334,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3칸 내의 적 1명 2턴간 이동불가(2턴) Mountain 지형에서만 사용가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>지휘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>선봉에 위치할 시 피해감소 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>수적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Mountain 지형에서 기동력 유지, 공격력+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,14 +370,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>빙권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>기본공격에 회피, 피해감면 불가 속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>신체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>모든 피해 감소 +1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>성검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>세르제테스(보스)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,7 +414,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>극마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>전 적군에게 1의 고정피해(3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -414,6 +529,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>권위(Authority)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Skill-now</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,159 +573,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>강건(Strong health)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>기본공격 +6D의 데미지(2턴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>성령(Holy Spirit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브만 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>완성도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>액티브 만 완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액티브 만 완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼란(Confuse)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결박(Bind)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매혹(allurement)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권위(Authority)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암휘(Dark Kindle)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암화(Dark Fire)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유수(Flowing Water)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적시(Red Arrow)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호위(Guard)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철벽(Iron wall)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑풍(Black Wind)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독아(Poison Tooth)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비행(Flight)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신속( Promptitude)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격노(Rage)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응목(Hawk Eyes)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진(Rush)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산인(Mountiaineer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연사(Continuous Fire)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭신(Explosion Body)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예조(Sharp Claws)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영환(Soul Balls)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성령(Holy Ghost)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마력(Magic Power)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산왕(Mountiain King)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지휘(Command)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적(Pirate)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빙권(Ice Fist)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영신(Soul Body)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신체(God's Body)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성검(Divine Sword)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>극마(End Magic)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검황(Sword Emperor)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강건(Strong health)</t>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격노(rage)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +609,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,13 +673,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -855,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,6 +871,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,13 +919,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,7 +1194,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1219,16 +1204,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="22.875" style="1" customWidth="1"/>
@@ -1245,22 +1230,22 @@
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>95</v>
+      <c r="D1" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1269,227 +1254,239 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>92</v>
+        <v>122</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>122</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>93</v>
+      <c r="G13" s="25">
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>27</v>
+      <c r="A16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1505,9 +1502,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1519,12 +1516,13 @@
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1532,405 +1530,405 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="E12" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="C17" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>72</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D25" s="13"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D26" s="13"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D27" s="13"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="15"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D29" s="15"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="15"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D31" s="13"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D32" s="13"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D33" s="13"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="15"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="15"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="15"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D37" s="13"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D38" s="13"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D39" s="13"/>
+      <c r="D39" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G20">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="144">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,30 +51,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>암휘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근접한 적에게 턴마다 1의 데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직선상의 모든 적에게 10의 데미지(7턴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,30 +67,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>호위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철벽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Water, Snow지형에서 피해감소 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>흑풍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매 턴 첫 피격 회피+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>독아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격 된 데미지의 20%로 반격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,14 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 지형의 이동관련 효과 무효화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>혼란</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격시마다 데미지 1증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,14 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매혹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>응목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회피+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>돌진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기동력+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>산인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mountain 지형효과 무효</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,30 +235,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격된 적 근접한 적에게 20% 피해(스플)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예웅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격된 적에게 3턴간 출혈 효과(매턴 체력 -1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본공격에 회피, 피해감면 불가속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,30 +259,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산왕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3칸 내의 적 1명 2턴간 이동불가(2턴) Mountain 지형에서만 사용가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지휘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선봉에 위치할 시 피해감소 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mountain 지형에서 기동력 유지, 공격력+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,30 +279,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빙권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본공격에 회피, 피해감면 불가 속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 피해 감소 +1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세르제테스(보스)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,15 +307,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>극마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전 적군에게 1의 고정피해(3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -529,79 +414,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Skill-now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss -1 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동을 포기하고 기본공격 데미지에 +기동력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본공격 +6D의 데미지(2턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 만 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 만 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼란(Confuse)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결박(Bind)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매혹(allurement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>권위(Authority)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill-now</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할 사람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miss -1 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동을 포기하고 기본공격 데미지에 +기동력</t>
+    <t>암휘(Dark Kindle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암화(Dark Fire)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유수(Flowing Water)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적시(Red Arrow)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호위(Guard)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철벽(Iron wall)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑풍(Black Wind)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독아(Poison Tooth)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비행(Flight)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신속( Promptitude)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격노(Rage)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응목(Hawk Eyes)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진(Rush)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산인(Mountiaineer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연사(Continuous Fire)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭신(Explosion Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예조(Sharp Claws)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영환(Soul Balls)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성령(Holy Ghost)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력(Magic Power)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산왕(Mountiain King)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘(Command)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적(Pirate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙권(Ice Fist)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영신(Soul Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신체(God's Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성검(Divine Sword)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극마(End Magic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검황(Sword Emperor)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강건(Strong health)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본공격 +6D의 데미지(2턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성령(Holy Spirit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액티브만 완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격노(rage)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +614,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +678,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -843,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,9 +883,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,7 +928,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,7 +1209,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1204,16 +1219,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="22.875" style="1" customWidth="1"/>
@@ -1230,22 +1245,22 @@
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>126</v>
+      <c r="D1" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1254,239 +1269,227 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="25">
-        <v>0.9</v>
+        <v>90</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>40</v>
+      <c r="A16" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1502,9 +1505,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1516,13 +1519,12 @@
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1530,405 +1532,405 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="C19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="D20" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="E20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D25" s="14"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D26" s="14"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D27" s="14"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="16"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="16"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D31" s="14"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D32" s="14"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D33" s="14"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="16"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="16"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="16"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D37" s="14"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D38" s="14"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D39" s="14"/>
+      <c r="D39" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G20">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710" activeTab="1"/>
   </bookViews>
@@ -494,119 +489,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>적시(Red Arrow)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호위(Guard)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑풍(Black Wind)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독아(Poison Tooth)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비행(Flight)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신속( Promptitude)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격노(Rage)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진(Rush)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭신(Explosion Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예조(Sharp Claws)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영환(Soul Balls)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성령(Holy Ghost)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력(Magic Power)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산왕(Mountiain King)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘(Command)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적(Pirate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙권(Ice Fist)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영신(Soul Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신체(God's Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성검(Divine Sword)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극마(End Magic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검황(Sword Emperor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강건(Strong health)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철벽(Iron wall)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응목(Hawk Eyes)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산인(Mountiaineer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>유수(Flowing Water)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적시(Red Arrow)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호위(Guard)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철벽(Iron wall)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑풍(Black Wind)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독아(Poison Tooth)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비행(Flight)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신속( Promptitude)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격노(Rage)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응목(Hawk Eyes)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진(Rush)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산인(Mountiaineer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연사(Continuous Fire)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭신(Explosion Body)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예조(Sharp Claws)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영환(Soul Balls)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성령(Holy Ghost)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마력(Magic Power)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산왕(Mountiain King)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지휘(Command)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적(Pirate)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빙권(Ice Fist)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영신(Soul Body)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신체(God's Body)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성검(Divine Sword)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>극마(End Magic)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검황(Sword Emperor)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강건(Strong health)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1209,7 +1204,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1217,16 +1212,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
@@ -1258,7 +1254,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -1281,7 +1277,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>113</v>
       </c>
@@ -1295,7 +1291,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>114</v>
       </c>
@@ -1311,7 +1307,7 @@
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1328,7 +1324,7 @@
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1343,9 +1339,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -1359,7 +1355,7 @@
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -1371,9 +1367,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1385,9 +1381,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -1399,9 +1395,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -1415,7 +1411,7 @@
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -1432,7 +1428,7 @@
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1450,7 +1446,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>109</v>
       </c>
@@ -1464,7 +1460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>110</v>
       </c>
@@ -1478,7 +1474,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>111</v>
       </c>
@@ -1493,7 +1489,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16"/>
+  <autoFilter ref="A1:G16">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="동은"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1506,8 +1508,8 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1524,7 +1526,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1545,7 +1547,7 @@
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>41</v>
@@ -1568,7 +1570,7 @@
     </row>
     <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>40</v>
@@ -1588,7 +1590,7 @@
     </row>
     <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>43</v>
@@ -1611,7 +1613,7 @@
     </row>
     <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>45</v>
@@ -1631,7 +1633,7 @@
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>50</v>
@@ -1648,7 +1650,7 @@
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>51</v>
@@ -1665,7 +1667,7 @@
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>52</v>
@@ -1682,7 +1684,7 @@
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>53</v>
@@ -1699,7 +1701,7 @@
     </row>
     <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>54</v>
@@ -1719,7 +1721,7 @@
     </row>
     <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>55</v>
@@ -1736,7 +1738,7 @@
     </row>
     <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>59</v>
@@ -1753,7 +1755,7 @@
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>58</v>
@@ -1770,7 +1772,7 @@
     </row>
     <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>60</v>
@@ -1787,7 +1789,7 @@
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>61</v>
@@ -1804,7 +1806,7 @@
     </row>
     <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>62</v>
@@ -1821,7 +1823,7 @@
     </row>
     <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>63</v>
@@ -1838,7 +1840,7 @@
     </row>
     <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>67</v>
@@ -1855,7 +1857,7 @@
     </row>
     <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>55</v>
@@ -1872,7 +1874,7 @@
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>70</v>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="147">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,6 +602,18 @@
   </si>
   <si>
     <t>연사(Continuous Fire)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지형효과빼고 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1212,12 +1224,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1265,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -1277,7 +1288,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>113</v>
       </c>
@@ -1291,7 +1302,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>114</v>
       </c>
@@ -1339,7 +1350,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>116</v>
       </c>
@@ -1367,7 +1378,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -1381,7 +1392,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>118</v>
       </c>
@@ -1395,7 +1406,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>119</v>
       </c>
@@ -1446,7 +1457,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>109</v>
       </c>
@@ -1460,7 +1471,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>110</v>
       </c>
@@ -1474,7 +1485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>111</v>
       </c>
@@ -1489,13 +1500,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="동은"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G16"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1509,7 +1514,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1521,7 +1526,8 @@
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1565,7 +1571,7 @@
         <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1587,6 +1593,9 @@
       <c r="G3" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -1630,6 +1639,9 @@
       <c r="G5" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
@@ -1647,6 +1659,9 @@
       <c r="E6" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
@@ -1663,6 +1678,9 @@
       </c>
       <c r="E7" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="148">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,91 +529,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>영환(Soul Balls)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성령(Holy Ghost)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력(Magic Power)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산왕(Mountiain King)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘(Command)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적(Pirate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙권(Ice Fist)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영신(Soul Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신체(God's Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성검(Divine Sword)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극마(End Magic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검황(Sword Emperor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강건(Strong health)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철벽(Iron wall)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응목(Hawk Eyes)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산인(Mountiaineer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유수(Flowing Water)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연사(Continuous Fire)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지형효과빼고 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>예조(Sharp Claws)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영환(Soul Balls)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성령(Holy Ghost)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마력(Magic Power)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산왕(Mountiain King)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지휘(Command)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적(Pirate)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빙권(Ice Fist)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영신(Soul Body)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신체(God's Body)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성검(Divine Sword)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>극마(End Magic)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검황(Sword Emperor)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강건(Strong health)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철벽(Iron wall)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응목(Hawk Eyes)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산인(Mountiaineer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유수(Flowing Water)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연사(Continuous Fire)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패시브완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패시브완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지형효과빼고 완성</t>
+    <t>페시브 작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페시브완성
+액티브 턴안됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,7 +1323,7 @@
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1366,7 +1371,7 @@
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -1513,8 +1518,8 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1553,7 +1558,7 @@
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>41</v>
@@ -1571,12 +1576,12 @@
         <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>40</v>
@@ -1593,8 +1598,8 @@
       <c r="G3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>145</v>
+      <c r="H3" s="22" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
@@ -1622,7 +1627,7 @@
     </row>
     <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>45</v>
@@ -1640,12 +1645,12 @@
         <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>50</v>
@@ -1660,7 +1665,7 @@
         <v>90</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1685,7 +1690,7 @@
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>52</v>
@@ -1699,10 +1704,13 @@
       <c r="E8" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>53</v>
@@ -1719,7 +1727,7 @@
     </row>
     <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>54</v>
@@ -1739,7 +1747,7 @@
     </row>
     <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>55</v>
@@ -1756,7 +1764,7 @@
     </row>
     <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>59</v>
@@ -1773,7 +1781,7 @@
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>58</v>
@@ -1790,7 +1798,7 @@
     </row>
     <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>60</v>
@@ -1807,7 +1815,7 @@
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>61</v>
@@ -1824,7 +1832,7 @@
     </row>
     <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>62</v>
@@ -1841,7 +1849,7 @@
     </row>
     <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>63</v>
@@ -1858,7 +1866,7 @@
     </row>
     <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>67</v>
@@ -1875,7 +1883,7 @@
     </row>
     <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>55</v>
@@ -1892,7 +1900,7 @@
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>70</v>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="150">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,10 +255,6 @@
   </si>
   <si>
     <t>3칸 내의 적 1명 2턴간 이동불가(2턴) Mountain 지형에서만 사용가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선봉에 위치할 시 피해감소 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -461,10 +457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>액티브 만 완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>혼란(Confuse)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,24 +593,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패시브완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지형효과빼고 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>예조(Sharp Claws)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페시브 작업중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>페시브완성
 액티브 턴안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/선봉에 위치할 시/ 피해감소 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완..완성?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지형때메 나중에 할꺼다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,7 +1229,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1258,21 +1266,21 @@
         <v>4</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1281,21 +1289,21 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1304,12 +1312,12 @@
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1318,12 +1326,12 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1332,15 +1340,15 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1349,15 +1357,15 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -1366,12 +1374,12 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -1380,12 +1388,12 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1394,12 +1402,12 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -1408,12 +1416,12 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -1422,12 +1430,12 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -1436,35 +1444,35 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -1473,12 +1481,12 @@
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -1487,12 +1495,12 @@
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>19</v>
@@ -1501,7 +1509,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1518,8 +1526,8 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1537,7 +1545,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1547,41 +1555,41 @@
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>40</v>
@@ -1593,18 +1601,18 @@
         <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>43</v>
@@ -1616,18 +1624,18 @@
         <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>45</v>
@@ -1639,58 +1647,58 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>52</v>
@@ -1702,72 +1710,72 @@
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>57</v>
@@ -1776,143 +1784,149 @@
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="E17" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>72</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,10 +541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해적(Pirate)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>빙권(Ice Fist)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -627,6 +623,50 @@
   </si>
   <si>
     <t>지형때메 나중에 할꺼다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 완성
+패시브 지형때문에 나중에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 나중에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 미완성
+페시브 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적(Pirate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브 주사위만 굴려짐
+작동되는지는 모름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페시브
+지형은 나중에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페시브완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페시브완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1229,7 +1269,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1241,7 +1281,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1252,7 +1292,8 @@
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="22.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1329,9 +1370,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1344,6 +1385,9 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1362,6 +1406,9 @@
       <c r="E6" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -1379,7 +1426,7 @@
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -1389,6 +1436,9 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1449,6 +1499,9 @@
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -1468,6 +1521,9 @@
       </c>
       <c r="F13" s="22" t="s">
         <v>92</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1522,12 +1578,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1540,10 +1595,11 @@
     <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>120</v>
       </c>
@@ -1564,9 +1620,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>41</v>
@@ -1587,9 +1643,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>40</v>
@@ -1607,10 +1663,10 @@
         <v>78</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>121</v>
       </c>
@@ -1633,9 +1689,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>45</v>
@@ -1653,12 +1709,12 @@
         <v>80</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>50</v>
@@ -1673,10 +1729,10 @@
         <v>89</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>122</v>
       </c>
@@ -1690,15 +1746,15 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>52</v>
@@ -1713,10 +1769,10 @@
         <v>89</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>123</v>
       </c>
@@ -1733,7 +1789,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>124</v>
       </c>
@@ -1750,10 +1806,10 @@
         <v>89</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>125</v>
       </c>
@@ -1770,7 +1826,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>126</v>
       </c>
@@ -1787,15 +1843,15 @@
         <v>89</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>84</v>
@@ -1807,12 +1863,12 @@
         <v>89</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>59</v>
@@ -1826,10 +1882,16 @@
       <c r="E14" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="H14" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>60</v>
@@ -1843,10 +1905,13 @@
       <c r="E15" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>61</v>
@@ -1861,9 +1926,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>62</v>
@@ -1878,9 +1943,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>66</v>
@@ -1894,10 +1959,13 @@
       <c r="E18" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>55</v>
@@ -1911,10 +1979,13 @@
       <c r="E19" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>69</v>
@@ -1929,28 +2000,28 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1975,13 +2046,7 @@
       <c r="D39" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G20">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="동은"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G20"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -1229,7 +1234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1239,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1522,12 +1527,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1610,7 +1614,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>121</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>125</v>
       </c>
@@ -1975,13 +1979,7 @@
       <c r="D39" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G20">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="동은"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G20"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="152">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,10 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>액티브 만 완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>혼란(Confuse)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,6 +628,18 @@
   </si>
   <si>
     <t>지형때메 나중에 할꺼다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,7 +1254,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1285,7 +1293,7 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1308,7 +1316,7 @@
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1319,10 +1327,13 @@
       <c r="E3" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1333,10 +1344,13 @@
       <c r="E4" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1353,7 +1367,7 @@
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1370,7 +1384,7 @@
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -1384,7 +1398,7 @@
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -1398,7 +1412,7 @@
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1412,7 +1426,7 @@
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -1426,7 +1440,7 @@
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -1440,7 +1454,7 @@
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -1457,7 +1471,7 @@
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1477,7 +1491,7 @@
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -1491,7 +1505,7 @@
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -1505,7 +1519,7 @@
     </row>
     <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>19</v>
@@ -1530,8 +1544,8 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1549,7 +1563,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1570,7 +1584,7 @@
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>41</v>
@@ -1593,7 +1607,7 @@
     </row>
     <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>40</v>
@@ -1611,12 +1625,12 @@
         <v>78</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>43</v>
@@ -1639,7 +1653,7 @@
     </row>
     <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>45</v>
@@ -1657,12 +1671,12 @@
         <v>80</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>50</v>
@@ -1677,12 +1691,12 @@
         <v>89</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>51</v>
@@ -1694,15 +1708,15 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>52</v>
@@ -1717,12 +1731,12 @@
         <v>89</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>53</v>
@@ -1739,7 +1753,7 @@
     </row>
     <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>54</v>
@@ -1754,12 +1768,12 @@
         <v>89</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>55</v>
@@ -1776,7 +1790,7 @@
     </row>
     <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>58</v>
@@ -1791,15 +1805,15 @@
         <v>89</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>84</v>
@@ -1811,12 +1825,12 @@
         <v>89</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>59</v>
@@ -1833,7 +1847,7 @@
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>60</v>
@@ -1850,7 +1864,7 @@
     </row>
     <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>61</v>
@@ -1867,7 +1881,7 @@
     </row>
     <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>62</v>
@@ -1884,7 +1898,7 @@
     </row>
     <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>66</v>
@@ -1901,7 +1915,7 @@
     </row>
     <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>55</v>
@@ -1918,7 +1932,7 @@
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>69</v>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="157">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피격 된 데미지의 20%로 반격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>반경 3칸 내의 적에게 5의 데미지(4턴)+뒤로 한칸 밀어냄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,10 +187,6 @@
   </si>
   <si>
     <t>피해감소+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2턴간 사거리+2(3턴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -502,144 +489,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>격노(Rage)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진(Rush)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭신(Explosion Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영환(Soul Balls)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성령(Holy Ghost)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력(Magic Power)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산왕(Mountiain King)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘(Command)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적(Pirate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙권(Ice Fist)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영신(Soul Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신체(God's Body)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성검(Divine Sword)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극마(End Magic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검황(Sword Emperor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강건(Strong health)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철벽(Iron wall)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응목(Hawk Eyes)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산인(Mountiaineer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유수(Flowing Water)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연사(Continuous Fire)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지형효과빼고 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예조(Sharp Claws)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/선봉에 위치할 시/ 피해감소 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완..완성?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지형때메 나중에 할꺼다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페시브완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페시브완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 된 데미지의 20%로 반격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>신속( Promptitude)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>격노(Rage)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진(Rush)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭신(Explosion Body)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영환(Soul Balls)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성령(Holy Ghost)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마력(Magic Power)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산왕(Mountiain King)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지휘(Command)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적(Pirate)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빙권(Ice Fist)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영신(Soul Body)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신체(God's Body)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성검(Divine Sword)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>극마(End Magic)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검황(Sword Emperor)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강건(Strong health)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철벽(Iron wall)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응목(Hawk Eyes)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산인(Mountiaineer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유수(Flowing Water)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연사(Continuous Fire)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지형효과빼고 완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예조(Sharp Claws)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페시브완성
-액티브 턴안됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패시브완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/선봉에 위치할 시/ 피해감소 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완..완성?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지형때메 나중에 할꺼다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패시브완성</t>
+    <t>폰트작업으로 영식이가 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2턴간 사거리+2(3턴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1242,7 +1256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1250,11 +1264,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1279,21 +1294,21 @@
         <v>4</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1302,55 +1317,55 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1359,15 +1374,15 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1376,163 +1391,169 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16"/>
+  <autoFilter ref="A1:G16">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="동은"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1541,11 +1562,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1563,7 +1585,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1573,402 +1595,414 @@
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="C4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="H19" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="D20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1993,7 +2027,13 @@
       <c r="D39" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G20"/>
+  <autoFilter ref="A1:G20">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="동은"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="154">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,14 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피격 된 데미지의 20%로 반격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반경 3칸 내의 적에게 5의 데미지(4턴)+뒤로 한칸 밀어냄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타격한 적에게 3턴간 매턴 1의 데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,18 +108,6 @@
   </si>
   <si>
     <t>4칸 내의 적 한명에게 10의 데미지(5턴)+1턴 행동불가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3칸 내의 적 한명에게 2턴간 2, 총 4의 데미지(2턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3칸 내의 아군 한명에게 한턴간 10의 피해를 막는 방어막 생성(3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3칸 내의 아군 회피 +1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,19 +458,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>암화(Dark Fire)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적시(Red Arrow)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호위(Guard)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑풍(Black Wind)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -639,7 +607,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패시브완성</t>
+    <t>3칸 내의 적 한명에게 2턴간 2, 총 4의 데미지(2턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암화(Dark Fire)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호위(Guard)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3칸 내의 아군 회피 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3칸 내의 아군 한명에게 한턴간 10의 피해를 막는 방어막 생성(3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑풍(Black Wind)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 된 데미지의 20%로 반격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반경 3칸 내의 적에게 5의 데미지(4턴)+뒤로 한칸 밀어냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,8 +1261,8 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1279,21 +1287,21 @@
         <v>4</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1302,55 +1310,55 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1359,15 +1367,15 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1376,159 +1384,165 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1544,8 +1558,8 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1563,7 +1577,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1573,378 +1587,378 @@
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -1250,7 +1245,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1258,11 +1253,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1299,7 +1295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>104</v>
       </c>
@@ -1322,7 +1318,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>105</v>
       </c>
@@ -1339,7 +1335,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>144</v>
       </c>
@@ -1390,7 +1386,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>146</v>
       </c>
@@ -1421,7 +1417,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>150</v>
       </c>
@@ -1438,7 +1434,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>107</v>
       </c>
@@ -1452,7 +1448,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>108</v>
       </c>
@@ -1503,7 +1499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>101</v>
       </c>
@@ -1517,7 +1513,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>102</v>
       </c>
@@ -1531,7 +1527,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>103</v>
       </c>
@@ -1546,7 +1542,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16"/>
+  <autoFilter ref="A1:G16">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="동은"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1558,8 +1560,8 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'마족 스킬'!$A$1:$G$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'인간 스킬'!$A$1:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'인간 스킬'!$A$1:$H$20</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="157">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,11 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>페시브완성
-액티브 턴안됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,6 +638,22 @@
   </si>
   <si>
     <t>패시브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1245,7 +1256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1256,8 +1267,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1332,24 +1343,24 @@
         <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1388,19 +1399,19 @@
     </row>
     <row r="7" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1419,19 +1430,19 @@
     </row>
     <row r="9" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
@@ -1557,11 +1568,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1621,7 +1633,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>128</v>
       </c>
@@ -1641,10 +1653,10 @@
         <v>73</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>112</v>
       </c>
@@ -1707,10 +1719,10 @@
         <v>84</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>113</v>
       </c>
@@ -1727,7 +1739,7 @@
         <v>77</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1747,7 +1759,7 @@
         <v>84</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1784,10 +1796,10 @@
         <v>84</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>116</v>
       </c>
@@ -1821,7 +1833,7 @@
         <v>84</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1829,7 +1841,7 @@
         <v>118</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>79</v>
@@ -1841,7 +1853,7 @@
         <v>84</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1860,6 +1872,9 @@
       <c r="E14" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
@@ -1877,6 +1892,9 @@
       <c r="E15" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
@@ -1895,7 +1913,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>122</v>
       </c>
@@ -1912,7 +1930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>123</v>
       </c>
@@ -1928,8 +1946,11 @@
       <c r="E18" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>124</v>
       </c>
@@ -1945,8 +1966,11 @@
       <c r="E19" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>125</v>
       </c>
@@ -1963,28 +1987,28 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -2009,7 +2033,13 @@
       <c r="D39" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G20"/>
+  <autoFilter ref="A1:H20">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="동은"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,6 +654,11 @@
   </si>
   <si>
     <t>액티브완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브완성
+페시브 다해감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1256,7 +1261,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1264,12 +1269,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1306,7 +1310,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>104</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>105</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>143</v>
       </c>
@@ -1397,7 +1401,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>145</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>149</v>
       </c>
@@ -1445,7 +1449,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>107</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>108</v>
       </c>
@@ -1510,7 +1514,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>101</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>102</v>
       </c>
@@ -1538,7 +1542,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>103</v>
       </c>
@@ -1553,13 +1557,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="동은"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G16"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1571,9 +1569,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1762,7 +1760,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>114</v>
       </c>
@@ -1777,6 +1775,9 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="157">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,11 +654,6 @@
   </si>
   <si>
     <t>액티브완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액티브완성
-페시브 다해감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1261,7 +1256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1570,8 +1565,8 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1760,7 +1755,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>114</v>
       </c>
@@ -1777,7 +1772,7 @@
         <v>84</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1913,6 +1908,9 @@
       <c r="E16" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
@@ -1929,6 +1927,9 @@
       </c>
       <c r="E17" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gg\기획서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650" activeTab="1"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="158">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,6 +659,11 @@
   </si>
   <si>
     <t>액티브완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브완성
+액티브 턴이 좀 이상함 99%완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1256,7 +1266,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1565,8 +1575,8 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J17" sqref="J17"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1578,7 +1588,7 @@
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1912,7 +1922,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>122</v>
       </c>
@@ -1928,8 +1938,8 @@
       <c r="E17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>135</v>
+      <c r="H17" s="22" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1949,7 +1959,7 @@
         <v>84</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gg\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -1276,9 +1276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1571,12 +1571,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H17" sqref="H17"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1659,7 +1658,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>112</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>113</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>116</v>
       </c>
@@ -1982,7 +1981,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="25.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>125</v>
       </c>
@@ -2045,13 +2044,7 @@
       <c r="D39" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H20">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="동은"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H20"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gg\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="156">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,10 +646,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패시브완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,11 +655,6 @@
   </si>
   <si>
     <t>액티브완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패시브완성
-액티브 턴이 좀 이상함 99%완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1276,9 +1267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1573,9 +1564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1655,7 +1646,7 @@
         <v>73</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1878,7 +1869,7 @@
         <v>84</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1898,7 +1889,7 @@
         <v>84</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1921,7 +1912,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>122</v>
       </c>
@@ -1938,7 +1929,7 @@
         <v>84</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1978,7 +1969,7 @@
         <v>84</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="157">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,10 +586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>완..완성?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지형때메 나중에 할꺼다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,6 +643,14 @@
   </si>
   <si>
     <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1269,7 +1273,7 @@
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1343,24 +1347,24 @@
         <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1379,6 +1383,9 @@
       <c r="E5" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -1396,22 +1403,25 @@
       <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1430,19 +1440,19 @@
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1489,6 +1499,9 @@
       <c r="E12" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -1508,6 +1521,9 @@
       </c>
       <c r="F13" s="22" t="s">
         <v>87</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1562,11 +1578,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1576,10 +1593,10 @@
     <col min="3" max="3" width="75.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="24.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1597,10 +1614,10 @@
         <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1619,11 +1636,11 @@
       <c r="E2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1642,14 +1659,14 @@
       <c r="E3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>112</v>
       </c>
@@ -1665,10 +1682,10 @@
       <c r="E4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="G4" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1688,11 +1705,11 @@
       <c r="E5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1711,11 +1728,11 @@
       <c r="E6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>113</v>
       </c>
@@ -1731,8 +1748,8 @@
       <c r="E7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>140</v>
+      <c r="F7" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1751,7 +1768,7 @@
       <c r="E8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1771,7 +1788,7 @@
       <c r="E9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="F9" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1791,11 +1808,11 @@
       <c r="E10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>116</v>
       </c>
@@ -1828,8 +1845,8 @@
       <c r="E12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>139</v>
+      <c r="F12" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1848,8 +1865,8 @@
       <c r="E13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>138</v>
+      <c r="F13" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1868,8 +1885,8 @@
       <c r="E14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>155</v>
+      <c r="F14" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1888,7 +1905,7 @@
       <c r="E15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1908,11 +1925,11 @@
       <c r="E16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>122</v>
       </c>
@@ -1928,11 +1945,11 @@
       <c r="E17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="F17" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>123</v>
       </c>
@@ -1948,11 +1965,11 @@
       <c r="E18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>124</v>
       </c>
@@ -1968,11 +1985,11 @@
       <c r="E19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>125</v>
       </c>
@@ -1989,28 +2006,28 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="4:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -2035,7 +2052,13 @@
       <c r="D39" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H20"/>
+  <autoFilter ref="A1:H20">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="동은"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gg\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="156">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,10 +642,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패시브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,6 +651,10 @@
   </si>
   <si>
     <t>액티브완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1267,9 +1267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1442,7 +1442,7 @@
         <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1457,6 +1457,9 @@
       </c>
       <c r="E10" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1564,9 +1567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1646,7 +1649,7 @@
         <v>73</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -1869,7 +1872,7 @@
         <v>84</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1969,7 +1972,7 @@
         <v>84</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -650,15 +650,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>액티브완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액티브완성</t>
+    <t>액티브완성
+페시브는 지형때메 나중에</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,9 +1272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1384,7 +1385,7 @@
         <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1404,7 +1405,7 @@
         <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1500,7 +1501,7 @@
         <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -1523,7 +1524,7 @@
         <v>87</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1583,7 +1584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1869,7 +1870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>119</v>
       </c>
@@ -1885,8 +1886,8 @@
       <c r="E14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>154</v>
+      <c r="F14" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1926,7 +1927,7 @@
         <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,10 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패시브완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -660,6 +656,10 @@
   <si>
     <t>액티브완성
 페시브는 지형때메 나중에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1348,24 +1348,24 @@
         <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1385,7 +1385,7 @@
         <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1405,24 +1405,24 @@
         <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1441,19 +1441,19 @@
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1501,7 +1501,7 @@
         <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -1524,7 +1524,7 @@
         <v>87</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1579,12 +1579,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1661,13 +1660,13 @@
         <v>84</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>112</v>
       </c>
@@ -1730,10 +1729,10 @@
         <v>84</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>113</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1810,10 +1809,10 @@
         <v>84</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>116</v>
       </c>
@@ -1827,7 +1826,10 @@
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1847,7 +1849,7 @@
         <v>84</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1855,7 +1857,7 @@
         <v>118</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>79</v>
@@ -1887,7 +1889,7 @@
         <v>84</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1987,10 +1989,10 @@
         <v>84</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="25.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>125</v>
       </c>
@@ -2053,13 +2055,7 @@
       <c r="D39" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H20">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="동은"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H20"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,6 +656,10 @@
   <si>
     <t>액티브완성
 페시브는 지형때메 나중에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1272,9 +1276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1438,6 +1442,9 @@
       <c r="E8" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -1582,8 +1589,8 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gg\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,6 +656,10 @@
   <si>
     <t>액티브완성
 페시브는 지형때메 나중에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1276,9 +1280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1476,6 +1480,9 @@
       <c r="E10" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
@@ -1588,9 +1595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,10 +634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패시브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,6 +652,10 @@
   <si>
     <t>액티브완성
 페시브는 지형때메 나중에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1282,7 +1282,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I15" sqref="I15"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1393,7 +1393,7 @@
         <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1413,7 +1413,7 @@
         <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1447,7 +1447,7 @@
         <v>86</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1464,7 +1464,7 @@
         <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1481,7 +1481,7 @@
         <v>85</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1497,6 +1497,9 @@
       <c r="E11" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1515,7 +1518,7 @@
         <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -1538,7 +1541,7 @@
         <v>87</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
@@ -1595,9 +1598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1674,7 +1677,7 @@
         <v>84</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>73</v>
@@ -1843,7 +1846,7 @@
         <v>84</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -1903,7 +1906,7 @@
         <v>84</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
@@ -2003,7 +2006,7 @@
         <v>84</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="160">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -652,6 +652,10 @@
   <si>
     <t>액티브완성
 페시브는 지형때메 나중에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1282,7 +1286,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1556,6 +1560,9 @@
       </c>
       <c r="E14" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="161">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -652,6 +652,10 @@
   <si>
     <t>액티브완성
 페시브는 지형때메 나중에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1286,7 +1290,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1577,6 +1581,9 @@
       </c>
       <c r="E15" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="162">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,6 +676,11 @@
   </si>
   <si>
     <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매혹 한 유닛의 스킬, 이동 불가, 공격 범위 측정 후 공격 범위 해당 적 공격 및
+자기 자신 공격 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1288,9 +1293,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1586,7 +1591,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>103</v>
       </c>
@@ -1598,6 +1603,9 @@
       </c>
       <c r="E16" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="165">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,10 +646,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>액티브완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>액티브완성
 페시브는 지형때메 나중에</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,6 +677,22 @@
   <si>
     <t>매혹 한 유닛의 스킬, 이동 불가, 공격 범위 측정 후 공격 범위 해당 적 공격 및
 자기 자신 공격 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성 체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +772,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +791,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -929,7 +947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,6 +1027,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,11 +1315,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1309,7 +1334,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1357,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>104</v>
       </c>
@@ -1355,7 +1380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>105</v>
       </c>
@@ -1372,7 +1397,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>141</v>
       </c>
@@ -1389,7 +1414,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>130</v>
       </c>
@@ -1406,10 +1431,13 @@
         <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>106</v>
       </c>
@@ -1423,13 +1451,16 @@
         <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>143</v>
       </c>
@@ -1446,7 +1477,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>127</v>
       </c>
@@ -1460,10 +1491,13 @@
         <v>86</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>147</v>
       </c>
@@ -1480,7 +1514,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>107</v>
       </c>
@@ -1494,10 +1528,10 @@
         <v>85</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>108</v>
       </c>
@@ -1511,10 +1545,10 @@
         <v>85</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>109</v>
       </c>
@@ -1533,8 +1567,11 @@
       <c r="G12" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="H12" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>110</v>
       </c>
@@ -1556,8 +1593,11 @@
       <c r="G13" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="H13" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>101</v>
       </c>
@@ -1571,10 +1611,10 @@
         <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>102</v>
       </c>
@@ -1588,10 +1628,10 @@
         <v>77</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="81" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>103</v>
       </c>
@@ -1605,11 +1645,20 @@
         <v>77</v>
       </c>
       <c r="F16" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16"/>
+  <autoFilter ref="A1:G16">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="동은"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1620,25 +1669,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="24.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>111</v>
       </c>
@@ -1658,8 +1708,11 @@
       <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="I1" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>126</v>
       </c>
@@ -1681,8 +1734,11 @@
       <c r="H2" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="I2" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>128</v>
       </c>
@@ -1704,8 +1760,11 @@
       <c r="H3" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="I3" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>112</v>
       </c>
@@ -1727,8 +1786,11 @@
       <c r="H4" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="I4" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>129</v>
       </c>
@@ -1751,7 +1813,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>131</v>
       </c>
@@ -1771,7 +1833,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>113</v>
       </c>
@@ -1791,7 +1853,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>133</v>
       </c>
@@ -1811,7 +1873,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>114</v>
       </c>
@@ -1831,7 +1893,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>115</v>
       </c>
@@ -1851,7 +1913,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>116</v>
       </c>
@@ -1868,10 +1930,10 @@
         <v>84</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>117</v>
       </c>
@@ -1891,7 +1953,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>118</v>
       </c>
@@ -1911,7 +1973,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>119</v>
       </c>
@@ -1928,10 +1990,10 @@
         <v>84</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>120</v>
       </c>
@@ -1951,7 +2013,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>121</v>
       </c>

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mountain 지형효과 무효</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기병(일반)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,10 +216,6 @@
   </si>
   <si>
     <t>피격된 적에게 3턴간 출혈 효과(매턴 체력 -1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본공격에 회피, 피해감면 불가속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -693,6 +685,22 @@
   </si>
   <si>
     <t>완성 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mountain 지형효과 무효//  프로그래머 : 시간 상 짜름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 명중 굴림 필요없음, 피해감면 불가속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +780,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,6 +805,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -947,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,6 +1047,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1315,12 +1332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1345,21 +1361,21 @@
         <v>4</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1368,21 +1384,21 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1391,32 +1407,32 @@
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1425,21 +1441,21 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1448,38 +1464,38 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -1488,35 +1504,35 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -1525,15 +1541,15 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -1542,15 +1558,15 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -1559,47 +1575,47 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -1608,15 +1624,15 @@
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -1625,15 +1641,15 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="81" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>17</v>
@@ -1642,23 +1658,17 @@
         <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="동은"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G16"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1669,16 +1679,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C26" sqref="C26"/>
+      <selection pane="topRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="24.75" style="1" bestFit="1" customWidth="1"/>
@@ -1690,7 +1700,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1700,47 +1710,47 @@
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>35</v>
@@ -1749,24 +1759,24 @@
         <v>37</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>38</v>
@@ -1775,339 +1785,360 @@
         <v>39</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>40</v>
+        <v>127</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>164</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>66</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">

--- a/기획서/스킬 레벨링.xlsx
+++ b/기획서/스킬 레벨링.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="마족 스킬" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,14 +232,6 @@
   </si>
   <si>
     <t>3칸 내의 적 1명 2턴간 이동불가(2턴) Mountain 지형에서만 사용가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mountain 지형에서 기동력 유지, 공격력+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sea 지형에서 기동력+1, 공격력 반감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -692,15 +684,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mountain 지형효과 무효//  프로그래머 : 시간 상 짜름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완성 체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 시 명중 굴림 필요없음, 피해감면 불가속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mountain 지형에서 기동력 유지, 공격력+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain 지형효과 무효// </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sea 지형에서 기동력+1, //공격력 반감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +784,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,7 +811,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,6 +1061,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,8 +1351,8 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1361,21 +1377,21 @@
         <v>4</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1384,21 +1400,21 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1407,32 +1423,32 @@
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1441,21 +1457,21 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1464,38 +1480,38 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -1504,35 +1520,35 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -1541,15 +1557,15 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -1558,15 +1574,15 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -1575,47 +1591,47 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -1624,15 +1640,15 @@
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -1641,15 +1657,15 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>17</v>
@@ -1658,13 +1674,13 @@
         <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B21" sqref="B21"/>
+      <selection pane="topRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1700,7 +1716,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1710,47 +1726,47 @@
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>35</v>
@@ -1762,21 +1778,21 @@
         <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>38</v>
@@ -1788,27 +1804,27 @@
         <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>43</v>
@@ -1817,67 +1833,67 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>46</v>
@@ -1889,87 +1905,90 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>50</v>
@@ -1978,167 +1997,179 @@
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>134</v>
+        <v>114</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>52</v>
+        <v>115</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
